--- a/Technology/Software/Atlassian.xlsx
+++ b/Technology/Software/Atlassian.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022C02BC-C624-E646-8FFF-3555EBD78A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99587A3-2827-2644-B76F-2D7CA50A755E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2271,11 +2271,9 @@
     <v>Powered by Refinitiv</v>
     <v>300.29000000000002</v>
     <v>113.855</v>
-    <v>0.82720000000000005</v>
-    <v>1.3</v>
-    <v>8.267E-3</v>
-    <v>0.21</v>
-    <v>1.325E-3</v>
+    <v>0.8125</v>
+    <v>-1.0900000000000001</v>
+    <v>-7.3609999999999995E-3</v>
     <v>USD</v>
     <v>Atlassian Corporation is a global software company that designs, develops, licenses, and maintains software and provisions software hosting services. Its products include Jira Software, Jira Align, Jira Service Management, Confluence, Trello, Atlassian Access and Bitbucket. Jira Software and Jira Work Management provide a flexible workflow management system that helps plan, organize, track and manage work and projects. Confluence is a social and flexible content collaboration platform used to create, share, organize, and discuss projects. Trello is a collaboration and organization product. Jira Service Management is an intuitive and flexible service desk product for creating and managing services for information technology, legal, and human resources teams. Bitbucket is a code management and collaboration product for teams using distributed version control systems. It also offers additional products, including Atlassian cloud apps and Crowd.</v>
     <v>8813</v>
@@ -2283,24 +2281,23 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>350 Bush Street, Floor 13, SAN FRANCISCO, CA, 94104 US</v>
-    <v>159.11000000000001</v>
+    <v>147.66999999999999</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45037.962064339845</v>
+    <v>45065.99554369141</v>
     <v>0</v>
-    <v>155.16</v>
-    <v>40634360000</v>
+    <v>144.59</v>
+    <v>37777490000</v>
     <v>ATLASSIAN CORPORATION</v>
     <v>ATLASSIAN CORPORATION</v>
-    <v>158.25</v>
-    <v>157.25</v>
-    <v>158.55000000000001</v>
-    <v>158.76</v>
-    <v>256287400</v>
+    <v>147.33000000000001</v>
+    <v>148.08000000000001</v>
+    <v>146.99</v>
+    <v>257007200</v>
     <v>TEAM</v>
     <v>ATLASSIAN CORPORATION (XNAS:TEAM)</v>
-    <v>1143270</v>
-    <v>1633524</v>
+    <v>10</v>
+    <v>2138826</v>
     <v>2022</v>
   </rv>
   <rv s="2">
@@ -2332,8 +2329,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2353,7 +2348,6 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2370,7 +2364,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="44">
+    <a count="41">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2381,16 +2375,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2454,19 +2445,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2510,9 +2495,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2520,9 +2502,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2887,7 +2866,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="I87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P98" sqref="P98"/>
+      <selection pane="bottomRight" activeCell="M99" sqref="M99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3032,16 +3011,16 @@
         <v>2802882000</v>
       </c>
       <c r="L3" s="28">
-        <v>3489000000</v>
+        <v>3497000000</v>
       </c>
       <c r="M3" s="28">
-        <v>4240000000</v>
+        <v>4219000000</v>
       </c>
       <c r="N3" s="28">
-        <v>5362000000</v>
+        <v>5353000000</v>
       </c>
       <c r="O3" s="28">
-        <v>6890000000</v>
+        <v>6827000000</v>
       </c>
       <c r="P3" s="28">
         <v>8228000000</v>
@@ -3102,23 +3081,23 @@
       </c>
       <c r="L4" s="16">
         <f t="shared" si="0"/>
-        <v>0.2447901838179416</v>
+        <v>0.24764438888258589</v>
       </c>
       <c r="M4" s="16">
         <f t="shared" si="0"/>
-        <v>0.21524792204069931</v>
+        <v>0.20646268229911358</v>
       </c>
       <c r="N4" s="16">
         <f t="shared" si="0"/>
-        <v>0.26462264150943393</v>
+        <v>0.26878407205498944</v>
       </c>
       <c r="O4" s="16">
         <f t="shared" si="0"/>
-        <v>0.28496829541215973</v>
+        <v>0.27535961143284138</v>
       </c>
       <c r="P4" s="16">
         <f t="shared" si="0"/>
-        <v>0.19419448476052259</v>
+        <v>0.20521458913139012</v>
       </c>
       <c r="Q4" s="17">
         <f>(K4+J4+I4)/3</f>
@@ -3678,15 +3657,15 @@
       </c>
       <c r="R16" s="30">
         <f>S101/K3</f>
-        <v>14.497349513821845</v>
+        <v>13.478087910943094</v>
       </c>
       <c r="S16" s="30">
         <f>S101/K28</f>
-        <v>-66.166376822921748</v>
+        <v>-61.514433567162335</v>
       </c>
       <c r="T16" s="31">
         <f>S101/K106</f>
-        <v>50.234406196107038</v>
+        <v>46.702588098578929</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6580,7 +6559,7 @@
       </c>
       <c r="S95" s="38" cm="1">
         <f t="array" ref="S95">_FV(A1,"Beta")</f>
-        <v>0.82720000000000005</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="96" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -6663,7 +6642,7 @@
       </c>
       <c r="S97" s="36">
         <f>(S94)+((S95)*(S96-S94))</f>
-        <v>7.6560960000000011E-2</v>
+        <v>7.5928125000000013E-2</v>
       </c>
     </row>
     <row r="98" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -6786,7 +6765,7 @@
       </c>
       <c r="S100" s="34">
         <f>S99/S103</f>
-        <v>3.1335566259013861E-2</v>
+        <v>3.3625591908478622E-2</v>
       </c>
     </row>
     <row r="101" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -6828,7 +6807,7 @@
       </c>
       <c r="S101" s="39" cm="1">
         <f t="array" ref="S101">_FV(A1,"Market cap",TRUE)</f>
-        <v>40634360000</v>
+        <v>37777490000</v>
       </c>
     </row>
     <row r="102" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -6870,7 +6849,7 @@
       </c>
       <c r="S102" s="34">
         <f>S101/S103</f>
-        <v>0.9686644337409861</v>
+        <v>0.96637440809152142</v>
       </c>
     </row>
     <row r="103" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -6912,7 +6891,7 @@
       </c>
       <c r="S103" s="40">
         <f>S99+S101</f>
-        <v>41948851000</v>
+        <v>39091981000</v>
       </c>
     </row>
     <row r="104" spans="1:19" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7006,7 +6985,7 @@
       </c>
       <c r="S105" s="26">
         <f>(S100*S92)+(S102*S97)</f>
-        <v>7.4831517099405304E-2</v>
+        <v>7.4093572623693732E-2</v>
       </c>
     </row>
     <row r="106" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -7045,23 +7024,23 @@
       </c>
       <c r="L106" s="41">
         <f>K106*(1+$S$106)</f>
-        <v>1003648366.4620161</v>
+        <v>1003590419.8547691</v>
       </c>
       <c r="M106" s="41">
         <f t="shared" ref="M106:P106" si="9">L106*(1+$S$106)</f>
-        <v>1245291469.8469806</v>
+        <v>1245147677.787935</v>
       </c>
       <c r="N106" s="41">
         <f t="shared" si="9"/>
-        <v>1545113703.8565018</v>
+        <v>1544846093.41433</v>
       </c>
       <c r="O106" s="41">
         <f t="shared" si="9"/>
-        <v>1917122549.7421217</v>
+        <v>1916679840.4004071</v>
       </c>
       <c r="P106" s="41">
         <f t="shared" si="9"/>
-        <v>2378697995.8538198</v>
+        <v>2378011393.0171609</v>
       </c>
       <c r="Q106" s="42" t="s">
         <v>146</v>
@@ -7071,7 +7050,7 @@
       </c>
       <c r="S106" s="44">
         <f>(SUM(L4:P4)/5)</f>
-        <v>0.24076470550815143</v>
+        <v>0.24069306876018409</v>
       </c>
     </row>
     <row r="107" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -7092,7 +7071,7 @@
       <c r="O107" s="42"/>
       <c r="P107" s="45">
         <f>P106*(1+S107)/(S108-S107)</f>
-        <v>48928180149.25061</v>
+        <v>49649303311.574692</v>
       </c>
       <c r="Q107" s="46" t="s">
         <v>148</v>
@@ -7107,23 +7086,23 @@
     <row r="108" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="L108" s="45">
         <f t="shared" ref="L108:N108" si="10">L107+L106</f>
-        <v>1003648366.4620161</v>
+        <v>1003590419.8547691</v>
       </c>
       <c r="M108" s="45">
         <f t="shared" si="10"/>
-        <v>1245291469.8469806</v>
+        <v>1245147677.787935</v>
       </c>
       <c r="N108" s="45">
         <f t="shared" si="10"/>
-        <v>1545113703.8565018</v>
+        <v>1544846093.41433</v>
       </c>
       <c r="O108" s="45">
         <f>O107+O106</f>
-        <v>1917122549.7421217</v>
+        <v>1916679840.4004071</v>
       </c>
       <c r="P108" s="45">
         <f>P107+P106</f>
-        <v>51306878145.104431</v>
+        <v>52027314704.59185</v>
       </c>
       <c r="Q108" s="46" t="s">
         <v>144</v>
@@ -7133,7 +7112,7 @@
       </c>
       <c r="S108" s="50">
         <f>S105</f>
-        <v>7.4831517099405304E-2</v>
+        <v>7.4093572623693732E-2</v>
       </c>
     </row>
     <row r="109" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -7148,7 +7127,7 @@
       </c>
       <c r="M110" s="39">
         <f>NPV(S108,L108,M108,N108,O108,P108)</f>
-        <v>40458753208.471626</v>
+        <v>41093647813.47036</v>
       </c>
     </row>
     <row r="111" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -7175,7 +7154,7 @@
       </c>
       <c r="M113" s="39">
         <f>M110+M111-M112</f>
-        <v>40602821208.471626</v>
+        <v>41237715813.47036</v>
       </c>
     </row>
     <row r="114" spans="12:13" ht="20" x14ac:dyDescent="0.25">
@@ -7193,7 +7172,7 @@
       </c>
       <c r="M115" s="58">
         <f>M113/M114</f>
-        <v>141.48880206472725</v>
+        <v>143.70122165590303</v>
       </c>
     </row>
     <row r="116" spans="12:13" ht="20" x14ac:dyDescent="0.25">
@@ -7202,7 +7181,7 @@
       </c>
       <c r="M116" s="54" cm="1">
         <f t="array" ref="M116">_FV(A1,"Price")</f>
-        <v>158.55000000000001</v>
+        <v>146.99</v>
       </c>
     </row>
     <row r="117" spans="12:13" ht="20" x14ac:dyDescent="0.25">
@@ -7211,7 +7190,7 @@
       </c>
       <c r="M117" s="56">
         <f>M115/M116-1</f>
-        <v>-0.10760768171096036</v>
+        <v>-2.2374163848540629E-2</v>
       </c>
     </row>
     <row r="118" spans="12:13" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Atlassian.xlsx
+++ b/Technology/Software/Atlassian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99587A3-2827-2644-B76F-2D7CA50A755E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31652C4D-5E03-914F-A599-D8257F0FB21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2271,9 +2271,11 @@
     <v>Powered by Refinitiv</v>
     <v>300.29000000000002</v>
     <v>113.855</v>
-    <v>0.8125</v>
-    <v>-1.0900000000000001</v>
-    <v>-7.3609999999999995E-3</v>
+    <v>0.81189999999999996</v>
+    <v>7.27</v>
+    <v>4.5758E-2</v>
+    <v>0.42</v>
+    <v>2.5280000000000003E-3</v>
     <v>USD</v>
     <v>Atlassian Corporation is a global software company that designs, develops, licenses, and maintains software and provisions software hosting services. Its products include Jira Software, Jira Align, Jira Service Management, Confluence, Trello, Atlassian Access and Bitbucket. Jira Software and Jira Work Management provide a flexible workflow management system that helps plan, organize, track and manage work and projects. Confluence is a social and flexible content collaboration platform used to create, share, organize, and discuss projects. Trello is a collaboration and organization product. Jira Service Management is an intuitive and flexible service desk product for creating and managing services for information technology, legal, and human resources teams. Bitbucket is a code management and collaboration product for teams using distributed version control systems. It also offers additional products, including Atlassian cloud apps and Crowd.</v>
     <v>8813</v>
@@ -2281,23 +2283,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>350 Bush Street, Floor 13, SAN FRANCISCO, CA, 94104 US</v>
-    <v>147.66999999999999</v>
+    <v>170</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45065.99554369141</v>
+    <v>45072.992049675784</v>
     <v>0</v>
-    <v>144.59</v>
-    <v>37777490000</v>
+    <v>159.55500000000001</v>
+    <v>42701750000</v>
     <v>ATLASSIAN CORPORATION</v>
     <v>ATLASSIAN CORPORATION</v>
-    <v>147.33000000000001</v>
-    <v>148.08000000000001</v>
-    <v>146.99</v>
+    <v>160</v>
+    <v>158.88</v>
+    <v>166.15</v>
+    <v>166.57</v>
     <v>257007200</v>
     <v>TEAM</v>
     <v>ATLASSIAN CORPORATION (XNAS:TEAM)</v>
-    <v>10</v>
-    <v>2138826</v>
+    <v>2095573</v>
+    <v>2291887</v>
     <v>2022</v>
   </rv>
   <rv s="2">
@@ -2329,6 +2332,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2348,6 +2353,7 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2364,7 +2370,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="41">
+    <a count="44">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2375,13 +2381,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2445,13 +2454,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2495,6 +2510,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2502,6 +2520,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2866,7 +2887,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="I87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M99" sqref="M99"/>
+      <selection pane="bottomRight" activeCell="N94" sqref="N94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3657,15 +3678,15 @@
       </c>
       <c r="R16" s="30">
         <f>S101/K3</f>
-        <v>13.478087910943094</v>
+        <v>15.234943889896185</v>
       </c>
       <c r="S16" s="30">
         <f>S101/K28</f>
-        <v>-61.514433567162335</v>
+        <v>-69.532781653216617</v>
       </c>
       <c r="T16" s="31">
         <f>S101/K106</f>
-        <v>46.702588098578929</v>
+        <v>52.790226172741825</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6559,7 +6580,7 @@
       </c>
       <c r="S95" s="38" cm="1">
         <f t="array" ref="S95">_FV(A1,"Beta")</f>
-        <v>0.8125</v>
+        <v>0.81189999999999996</v>
       </c>
     </row>
     <row r="96" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -6642,7 +6663,7 @@
       </c>
       <c r="S97" s="36">
         <f>(S94)+((S95)*(S96-S94))</f>
-        <v>7.5928125000000013E-2</v>
+        <v>7.5902295000000009E-2</v>
       </c>
     </row>
     <row r="98" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -6765,7 +6786,7 @@
       </c>
       <c r="S100" s="34">
         <f>S99/S103</f>
-        <v>3.3625591908478622E-2</v>
+        <v>2.9863772328945583E-2</v>
       </c>
     </row>
     <row r="101" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -6807,7 +6828,7 @@
       </c>
       <c r="S101" s="39" cm="1">
         <f t="array" ref="S101">_FV(A1,"Market cap",TRUE)</f>
-        <v>37777490000</v>
+        <v>42701750000</v>
       </c>
     </row>
     <row r="102" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -6849,7 +6870,7 @@
       </c>
       <c r="S102" s="34">
         <f>S101/S103</f>
-        <v>0.96637440809152142</v>
+        <v>0.97013622767105445</v>
       </c>
     </row>
     <row r="103" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -6891,7 +6912,7 @@
       </c>
       <c r="S103" s="40">
         <f>S99+S101</f>
-        <v>39091981000</v>
+        <v>44016241000</v>
       </c>
     </row>
     <row r="104" spans="1:19" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -6985,7 +7006,7 @@
       </c>
       <c r="S105" s="26">
         <f>(S100*S92)+(S102*S97)</f>
-        <v>7.4093572623693732E-2</v>
+        <v>7.4273752177918956E-2</v>
       </c>
     </row>
     <row r="106" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -7071,7 +7092,7 @@
       <c r="O107" s="42"/>
       <c r="P107" s="45">
         <f>P106*(1+S107)/(S108-S107)</f>
-        <v>49649303311.574692</v>
+        <v>49467750477.806915</v>
       </c>
       <c r="Q107" s="46" t="s">
         <v>148</v>
@@ -7102,7 +7123,7 @@
       </c>
       <c r="P108" s="45">
         <f>P107+P106</f>
-        <v>52027314704.59185</v>
+        <v>51845761870.824074</v>
       </c>
       <c r="Q108" s="46" t="s">
         <v>144</v>
@@ -7112,7 +7133,7 @@
       </c>
       <c r="S108" s="50">
         <f>S105</f>
-        <v>7.4093572623693732E-2</v>
+        <v>7.4273752177918956E-2</v>
       </c>
     </row>
     <row r="109" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -7127,7 +7148,7 @@
       </c>
       <c r="M110" s="39">
         <f>NPV(S108,L108,M108,N108,O108,P108)</f>
-        <v>41093647813.47036</v>
+        <v>40934136245.025841</v>
       </c>
     </row>
     <row r="111" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -7154,7 +7175,7 @@
       </c>
       <c r="M113" s="39">
         <f>M110+M111-M112</f>
-        <v>41237715813.47036</v>
+        <v>41078204245.025841</v>
       </c>
     </row>
     <row r="114" spans="12:13" ht="20" x14ac:dyDescent="0.25">
@@ -7172,7 +7193,7 @@
       </c>
       <c r="M115" s="58">
         <f>M113/M114</f>
-        <v>143.70122165590303</v>
+        <v>143.14537110013001</v>
       </c>
     </row>
     <row r="116" spans="12:13" ht="20" x14ac:dyDescent="0.25">
@@ -7181,7 +7202,7 @@
       </c>
       <c r="M116" s="54" cm="1">
         <f t="array" ref="M116">_FV(A1,"Price")</f>
-        <v>146.99</v>
+        <v>166.15</v>
       </c>
     </row>
     <row r="117" spans="12:13" ht="20" x14ac:dyDescent="0.25">
@@ -7190,7 +7211,7 @@
       </c>
       <c r="M117" s="56">
         <f>M115/M116-1</f>
-        <v>-2.2374163848540629E-2</v>
+        <v>-0.13845699006843215</v>
       </c>
     </row>
     <row r="118" spans="12:13" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Atlassian.xlsx
+++ b/Technology/Software/Atlassian.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31652C4D-5E03-914F-A599-D8257F0FB21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C733F3-712F-6345-B13A-CBC78388A4BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2271,11 +2271,9 @@
     <v>Powered by Refinitiv</v>
     <v>300.29000000000002</v>
     <v>113.855</v>
-    <v>0.81189999999999996</v>
-    <v>7.27</v>
-    <v>4.5758E-2</v>
-    <v>0.42</v>
-    <v>2.5280000000000003E-3</v>
+    <v>0.77659999999999996</v>
+    <v>1.53</v>
+    <v>9.0869999999999996E-3</v>
     <v>USD</v>
     <v>Atlassian Corporation is a global software company that designs, develops, licenses, and maintains software and provisions software hosting services. Its products include Jira Software, Jira Align, Jira Service Management, Confluence, Trello, Atlassian Access and Bitbucket. Jira Software and Jira Work Management provide a flexible workflow management system that helps plan, organize, track and manage work and projects. Confluence is a social and flexible content collaboration platform used to create, share, organize, and discuss projects. Trello is a collaboration and organization product. Jira Service Management is an intuitive and flexible service desk product for creating and managing services for information technology, legal, and human resources teams. Bitbucket is a code management and collaboration product for teams using distributed version control systems. It also offers additional products, including Atlassian cloud apps and Crowd.</v>
     <v>8813</v>
@@ -2283,24 +2281,23 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>350 Bush Street, Floor 13, SAN FRANCISCO, CA, 94104 US</v>
-    <v>170</v>
+    <v>170.61</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45072.992049675784</v>
+    <v>45099.982527407032</v>
     <v>0</v>
-    <v>159.55500000000001</v>
-    <v>42701750000</v>
+    <v>164.91</v>
+    <v>43668093352</v>
     <v>ATLASSIAN CORPORATION</v>
     <v>ATLASSIAN CORPORATION</v>
-    <v>160</v>
-    <v>158.88</v>
-    <v>166.15</v>
-    <v>166.57</v>
+    <v>167.3</v>
+    <v>168.38</v>
+    <v>169.91</v>
     <v>257007200</v>
     <v>TEAM</v>
     <v>ATLASSIAN CORPORATION (XNAS:TEAM)</v>
-    <v>2095573</v>
-    <v>2291887</v>
+    <v>47</v>
+    <v>2180823</v>
     <v>2022</v>
   </rv>
   <rv s="2">
@@ -2332,8 +2329,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2353,7 +2348,6 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2370,7 +2364,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="44">
+    <a count="41">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2381,16 +2375,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2454,19 +2445,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2510,9 +2495,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2520,9 +2502,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2884,10 +2863,10 @@
   <dimension ref="A1:T118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N94" sqref="N94"/>
+      <selection pane="bottomRight" activeCell="L121" sqref="L121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3678,15 +3657,15 @@
       </c>
       <c r="R16" s="30">
         <f>S101/K3</f>
-        <v>15.234943889896185</v>
+        <v>15.579711651079139</v>
       </c>
       <c r="S16" s="30">
         <f>S101/K28</f>
-        <v>-69.532781653216617</v>
+        <v>-71.106312979137769</v>
       </c>
       <c r="T16" s="31">
         <f>S101/K106</f>
-        <v>52.790226172741825</v>
+        <v>53.984872390112436</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6580,7 +6559,7 @@
       </c>
       <c r="S95" s="38" cm="1">
         <f t="array" ref="S95">_FV(A1,"Beta")</f>
-        <v>0.81189999999999996</v>
+        <v>0.77659999999999996</v>
       </c>
     </row>
     <row r="96" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -6663,7 +6642,7 @@
       </c>
       <c r="S97" s="36">
         <f>(S94)+((S95)*(S96-S94))</f>
-        <v>7.5902295000000009E-2</v>
+        <v>7.4382630000000005E-2</v>
       </c>
     </row>
     <row r="98" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -6786,7 +6765,7 @@
       </c>
       <c r="S100" s="34">
         <f>S99/S103</f>
-        <v>2.9863772328945583E-2</v>
+        <v>2.9222220531256685E-2</v>
       </c>
     </row>
     <row r="101" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -6828,7 +6807,7 @@
       </c>
       <c r="S101" s="39" cm="1">
         <f t="array" ref="S101">_FV(A1,"Market cap",TRUE)</f>
-        <v>42701750000</v>
+        <v>43668093352</v>
       </c>
     </row>
     <row r="102" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -6870,7 +6849,7 @@
       </c>
       <c r="S102" s="34">
         <f>S101/S103</f>
-        <v>0.97013622767105445</v>
+        <v>0.97077777946874333</v>
       </c>
     </row>
     <row r="103" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -6912,7 +6891,7 @@
       </c>
       <c r="S103" s="40">
         <f>S99+S101</f>
-        <v>44016241000</v>
+        <v>44982584352</v>
       </c>
     </row>
     <row r="104" spans="1:19" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7006,7 +6985,7 @@
       </c>
       <c r="S105" s="26">
         <f>(S100*S92)+(S102*S97)</f>
-        <v>7.4273752177918956E-2</v>
+        <v>7.283348051528557E-2</v>
       </c>
     </row>
     <row r="106" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -7092,7 +7071,7 @@
       <c r="O107" s="42"/>
       <c r="P107" s="45">
         <f>P106*(1+S107)/(S108-S107)</f>
-        <v>49467750477.806915</v>
+        <v>50957230199.121292</v>
       </c>
       <c r="Q107" s="46" t="s">
         <v>148</v>
@@ -7123,7 +7102,7 @@
       </c>
       <c r="P108" s="45">
         <f>P107+P106</f>
-        <v>51845761870.824074</v>
+        <v>53335241592.138451</v>
       </c>
       <c r="Q108" s="46" t="s">
         <v>144</v>
@@ -7133,7 +7112,7 @@
       </c>
       <c r="S108" s="50">
         <f>S105</f>
-        <v>7.4273752177918956E-2</v>
+        <v>7.283348051528557E-2</v>
       </c>
     </row>
     <row r="109" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -7148,7 +7127,7 @@
       </c>
       <c r="M110" s="39">
         <f>NPV(S108,L108,M108,N108,O108,P108)</f>
-        <v>40934136245.025841</v>
+        <v>42242972106.250832</v>
       </c>
     </row>
     <row r="111" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -7175,7 +7154,7 @@
       </c>
       <c r="M113" s="39">
         <f>M110+M111-M112</f>
-        <v>41078204245.025841</v>
+        <v>42387040106.250832</v>
       </c>
     </row>
     <row r="114" spans="12:13" ht="20" x14ac:dyDescent="0.25">
@@ -7193,7 +7172,7 @@
       </c>
       <c r="M115" s="58">
         <f>M113/M114</f>
-        <v>143.14537110013001</v>
+        <v>147.70627629322632</v>
       </c>
     </row>
     <row r="116" spans="12:13" ht="20" x14ac:dyDescent="0.25">
@@ -7202,7 +7181,7 @@
       </c>
       <c r="M116" s="54" cm="1">
         <f t="array" ref="M116">_FV(A1,"Price")</f>
-        <v>166.15</v>
+        <v>169.91</v>
       </c>
     </row>
     <row r="117" spans="12:13" ht="20" x14ac:dyDescent="0.25">
@@ -7211,7 +7190,7 @@
       </c>
       <c r="M117" s="56">
         <f>M115/M116-1</f>
-        <v>-0.13845699006843215</v>
+        <v>-0.13067932262240989</v>
       </c>
     </row>
     <row r="118" spans="12:13" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Atlassian.xlsx
+++ b/Technology/Software/Atlassian.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C733F3-712F-6345-B13A-CBC78388A4BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D107C9B3-84D2-4A43-B419-3A4986A6D482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -510,9 +510,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -550,18 +547,47 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -724,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -830,22 +856,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -853,47 +870,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -935,98 +917,94 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1077,7 +1055,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>TEAM</a:t>
+              <a:t>Atlassian</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1116,9 +1094,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="7.8930693069306931E-2"/>
-          <c:y val="0.10408032402793199"/>
+          <c:y val="0.15530090394571638"/>
           <c:w val="0.86958415841584158"/>
-          <c:h val="0.79484764599120505"/>
+          <c:h val="0.70201047952907403"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1314,11 +1292,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1358,7 +1336,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$K$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$K$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1530,8 +1508,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34872316207998755"/>
-          <c:y val="0.92716071405712053"/>
+          <c:x val="0.35136342610639015"/>
+          <c:y val="0.90795311410194124"/>
           <c:w val="0.30255367584002496"/>
           <c:h val="4.3280033023903264E-2"/>
         </c:manualLayout>
@@ -2115,13 +2093,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>17462</xdr:rowOff>
+      <xdr:rowOff>49212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>206374</xdr:rowOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2147,6 +2125,80 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+      <sheetName val="Factor Scoring"/>
+      <sheetName val="Factor Investing"/>
+      <sheetName val="Concentrated"/>
+      <sheetName val="All Stars"/>
+      <sheetName val="ROIC Port"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="Small Cap Gems"/>
+      <sheetName val="Private Companies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0480000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2271,9 +2323,9 @@
     <v>Powered by Refinitiv</v>
     <v>300.29000000000002</v>
     <v>113.855</v>
-    <v>0.77659999999999996</v>
-    <v>1.53</v>
-    <v>9.0869999999999996E-3</v>
+    <v>0.74019999999999997</v>
+    <v>3.61</v>
+    <v>2.1767999999999999E-2</v>
     <v>USD</v>
     <v>Atlassian Corporation is a global software company that designs, develops, licenses, and maintains software and provisions software hosting services. Its products include Jira Software, Jira Align, Jira Service Management, Confluence, Trello, Atlassian Access and Bitbucket. Jira Software and Jira Work Management provide a flexible workflow management system that helps plan, organize, track and manage work and projects. Confluence is a social and flexible content collaboration platform used to create, share, organize, and discuss projects. Trello is a collaboration and organization product. Jira Service Management is an intuitive and flexible service desk product for creating and managing services for information technology, legal, and human resources teams. Bitbucket is a code management and collaboration product for teams using distributed version control systems. It also offers additional products, including Atlassian cloud apps and Crowd.</v>
     <v>8813</v>
@@ -2281,23 +2333,23 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>350 Bush Street, Floor 13, SAN FRANCISCO, CA, 94104 US</v>
-    <v>170.61</v>
+    <v>173.43</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45099.982527407032</v>
+    <v>45114.996450728904</v>
     <v>0</v>
-    <v>164.91</v>
-    <v>43668093352</v>
+    <v>165.57</v>
+    <v>43549880000</v>
     <v>ATLASSIAN CORPORATION</v>
     <v>ATLASSIAN CORPORATION</v>
-    <v>167.3</v>
-    <v>168.38</v>
-    <v>169.91</v>
+    <v>165.57</v>
+    <v>165.84</v>
+    <v>169.45</v>
     <v>257007200</v>
     <v>TEAM</v>
     <v>ATLASSIAN CORPORATION (XNAS:TEAM)</v>
-    <v>47</v>
-    <v>2180823</v>
+    <v>95</v>
+    <v>1973028</v>
     <v>2022</v>
   </rv>
   <rv s="2">
@@ -2863,10 +2915,10 @@
   <dimension ref="A1:T118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L121" sqref="L121"/>
+      <selection pane="bottomRight" activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2910,19 +2962,19 @@
       <c r="K1" s="8">
         <v>2022</v>
       </c>
-      <c r="L1" s="27">
+      <c r="L1" s="23">
         <v>2023</v>
       </c>
-      <c r="M1" s="27">
+      <c r="M1" s="23">
         <v>2024</v>
       </c>
-      <c r="N1" s="27">
+      <c r="N1" s="23">
         <v>2025</v>
       </c>
-      <c r="O1" s="27">
+      <c r="O1" s="23">
         <v>2026</v>
       </c>
-      <c r="P1" s="27">
+      <c r="P1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -2931,43 +2983,43 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
@@ -3010,37 +3062,37 @@
       <c r="K3" s="1">
         <v>2802882000</v>
       </c>
-      <c r="L3" s="28">
-        <v>3497000000</v>
-      </c>
-      <c r="M3" s="28">
-        <v>4219000000</v>
-      </c>
-      <c r="N3" s="28">
-        <v>5353000000</v>
-      </c>
-      <c r="O3" s="28">
-        <v>6827000000</v>
-      </c>
-      <c r="P3" s="28">
-        <v>8228000000</v>
+      <c r="L3" s="24">
+        <v>3510000000</v>
+      </c>
+      <c r="M3" s="24">
+        <v>4192000000</v>
+      </c>
+      <c r="N3" s="24">
+        <v>5201000000</v>
+      </c>
+      <c r="O3" s="24">
+        <v>6342000000</v>
+      </c>
+      <c r="P3" s="24">
+        <v>7079000000</v>
       </c>
       <c r="Q3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="R3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="R3" s="19" t="s">
+      <c r="S3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="S3" s="19" t="s">
+      <c r="T3" s="19" t="s">
         <v>111</v>
-      </c>
-      <c r="T3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3081,23 +3133,23 @@
       </c>
       <c r="L4" s="16">
         <f t="shared" si="0"/>
-        <v>0.24764438888258589</v>
+        <v>0.25228247211263266</v>
       </c>
       <c r="M4" s="16">
         <f t="shared" si="0"/>
-        <v>0.20646268229911358</v>
+        <v>0.19430199430199435</v>
       </c>
       <c r="N4" s="16">
         <f t="shared" si="0"/>
-        <v>0.26878407205498944</v>
+        <v>0.24069656488549618</v>
       </c>
       <c r="O4" s="16">
         <f t="shared" si="0"/>
-        <v>0.27535961143284138</v>
+        <v>0.21938088829071334</v>
       </c>
       <c r="P4" s="16">
         <f t="shared" si="0"/>
-        <v>0.20521458913139012</v>
+        <v>0.11620939766635141</v>
       </c>
       <c r="Q4" s="17">
         <f>(K4+J4+I4)/3</f>
@@ -3112,7 +3164,7 @@
         <v>0.13922163548016184</v>
       </c>
       <c r="T4" s="17">
-        <f>(K105+J105+I105)/3</f>
+        <f>(K106+J106+I106)/3</f>
         <v>0.26119948679208588</v>
       </c>
     </row>
@@ -3186,16 +3238,16 @@
         <v>2337175000</v>
       </c>
       <c r="Q6" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="R6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="R6" s="19" t="s">
+      <c r="S6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="S6" s="19" t="s">
+      <c r="T6" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="T6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -3245,7 +3297,7 @@
         <v>-0.21909999999999999</v>
       </c>
       <c r="T7" s="20">
-        <f>K106/K3</f>
+        <f>K107/K3</f>
         <v>0.28859402572066895</v>
       </c>
     </row>
@@ -3286,7 +3338,7 @@
     </row>
     <row r="9" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3329,16 +3381,16 @@
         <v>0.49861820797307915</v>
       </c>
       <c r="Q9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="R9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="R9" s="19" t="s">
+      <c r="S9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="S9" s="19" t="s">
+      <c r="T9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="T9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -3462,21 +3514,21 @@
         <v>1046064000</v>
       </c>
       <c r="Q12" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="R12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="R12" s="19" t="s">
+      <c r="S12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="S12" s="19" t="s">
+      <c r="T12" s="19" t="s">
         <v>119</v>
-      </c>
-      <c r="T12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -3540,34 +3592,34 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -3605,16 +3657,16 @@
         <v>2443632000</v>
       </c>
       <c r="Q15" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="R15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="R15" s="19" t="s">
+      <c r="S15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="S15" s="19" t="s">
+      <c r="T15" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="T15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -3651,24 +3703,24 @@
       <c r="K16" s="1">
         <v>2909339000</v>
       </c>
-      <c r="Q16" s="29">
+      <c r="Q16" s="25">
         <f>(K35+J35+I35+H35+G35)/5</f>
         <v>2.6573113665885339E-2</v>
       </c>
       <c r="R16" s="30">
         <f>S101/K3</f>
-        <v>15.579711651079139</v>
+        <v>15.537536007580769</v>
       </c>
       <c r="S16" s="30">
         <f>S101/K28</f>
-        <v>-71.106312979137769</v>
+        <v>-70.913821964293859</v>
       </c>
       <c r="T16" s="31">
-        <f>S101/K106</f>
-        <v>53.984872390112436</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+        <f>S101/K107</f>
+        <v>53.838730613985746</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3703,7 +3755,7 @@
         <v>25824000</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -3738,10 +3790,19 @@
         <v>93958000</v>
       </c>
       <c r="Q18" s="18" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="R18" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="S18" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="T18" s="19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -3775,14 +3836,41 @@
       <c r="K19" s="10">
         <v>-444790000</v>
       </c>
-      <c r="Q19" s="32">
+      <c r="L19" s="34">
+        <v>733600000</v>
+      </c>
+      <c r="M19" s="34">
+        <v>789100000</v>
+      </c>
+      <c r="N19" s="34">
+        <v>1067000000</v>
+      </c>
+      <c r="O19" s="34">
+        <v>1313000000</v>
+      </c>
+      <c r="P19" s="34">
+        <v>1466000000</v>
+      </c>
+      <c r="Q19" s="26">
         <f>K40-K56-K61</f>
         <v>144068000</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R19" s="30">
+        <f>S101/L3</f>
+        <v>12.40737321937322</v>
+      </c>
+      <c r="S19" s="30">
+        <f>S101/L28</f>
+        <v>94.941966426858514</v>
+      </c>
+      <c r="T19" s="31">
+        <f>S101/L106</f>
+        <v>65.321553922303892</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -3798,7 +3886,7 @@
         <v>0.15192774332704229</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:K20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:P20" si="3">(F19/E19)-1</f>
         <v>-0.88478642480983027</v>
       </c>
       <c r="G20" s="15">
@@ -3821,8 +3909,28 @@
         <f t="shared" si="3"/>
         <v>6.1290422640735143E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="L20" s="16">
+        <f t="shared" si="3"/>
+        <v>-2.649317655522831</v>
+      </c>
+      <c r="M20" s="16">
+        <f t="shared" si="3"/>
+        <v>7.5654307524536613E-2</v>
+      </c>
+      <c r="N20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.35217336205804073</v>
+      </c>
+      <c r="O20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.23055295220243677</v>
+      </c>
+      <c r="P20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.11652703731911651</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3856,8 +3964,34 @@
       <c r="K21" s="2">
         <v>-0.15870000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="L21" s="35">
+        <f>L19/L3</f>
+        <v>0.20900284900284899</v>
+      </c>
+      <c r="M21" s="35">
+        <f t="shared" ref="M21:P21" si="4">M19/M3</f>
+        <v>0.18823950381679388</v>
+      </c>
+      <c r="N21" s="35">
+        <f t="shared" si="4"/>
+        <v>0.20515285522014998</v>
+      </c>
+      <c r="O21" s="35">
+        <f t="shared" si="4"/>
+        <v>0.20703248186691894</v>
+      </c>
+      <c r="P21" s="35">
+        <f t="shared" si="4"/>
+        <v>0.20709139708998447</v>
+      </c>
+      <c r="S21" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="T21" s="19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -3891,8 +4025,16 @@
       <c r="K22" s="10">
         <v>-106457000</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="S22" s="32">
+        <f>(-1*K98)/S101</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="33">
+        <f>K107/S101</f>
+        <v>1.8573989182059745E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -3927,7 +4069,7 @@
         <v>-3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -3962,7 +4104,7 @@
         <v>-458115000</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -3997,7 +4139,7 @@
         <v>-564572000</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -4032,7 +4174,7 @@
         <v>-0.2014</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -4067,7 +4209,7 @@
         <v>49552000</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -4101,10 +4243,25 @@
       <c r="K28" s="11">
         <v>-614124000</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="L28" s="36">
+        <v>458700000</v>
+      </c>
+      <c r="M28" s="36">
+        <v>547500000</v>
+      </c>
+      <c r="N28" s="36">
+        <v>745300000</v>
+      </c>
+      <c r="O28" s="36">
+        <v>1247000000</v>
+      </c>
+      <c r="P28" s="36">
+        <v>1269000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -4120,31 +4277,51 @@
         <v>-0.35453874538745389</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:K29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:P29" si="5">(F28/E28)-1</f>
         <v>-10.719643265492797</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8077592697157914</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.3428494817372068</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.4500588907830827</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.98576089250372156</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.11803709528015338</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="L29" s="16">
+        <f t="shared" si="5"/>
+        <v>-1.7469175606229361</v>
+      </c>
+      <c r="M29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.19359058207979074</v>
+      </c>
+      <c r="N29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.36127853881278549</v>
+      </c>
+      <c r="O29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.6731517509727627</v>
+      </c>
+      <c r="P29" s="16">
+        <f t="shared" si="5"/>
+        <v>1.7642341619887647E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -4178,8 +4355,28 @@
       <c r="K30" s="2">
         <v>-0.21909999999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="L30" s="37">
+        <f>L28/L3</f>
+        <v>0.1306837606837607</v>
+      </c>
+      <c r="M30" s="37">
+        <f t="shared" ref="M30:P30" si="6">M28/M3</f>
+        <v>0.13060591603053434</v>
+      </c>
+      <c r="N30" s="37">
+        <f t="shared" si="6"/>
+        <v>0.14329936550663333</v>
+      </c>
+      <c r="O30" s="37">
+        <f t="shared" si="6"/>
+        <v>0.19662567013560392</v>
+      </c>
+      <c r="P30" s="37">
+        <f t="shared" si="6"/>
+        <v>0.1792626077129538</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -4213,8 +4410,23 @@
       <c r="K31" s="12">
         <v>-2.42</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="L31" s="38">
+        <v>1.78</v>
+      </c>
+      <c r="M31" s="38">
+        <v>2.13</v>
+      </c>
+      <c r="N31" s="38">
+        <v>2.9</v>
+      </c>
+      <c r="O31" s="38">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="P31" s="38">
+        <v>4.9400000000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -4321,7 +4533,7 @@
     </row>
     <row r="35" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -4329,35 +4541,35 @@
         <v>0</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:K35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:K35" si="7">(D34-C34)/C34</f>
         <v>0</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-7.2812361841166032E-2</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.14855722267302732</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.0319677442580457E-2</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.212592566959651E-2</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.6122014492206982E-2</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.9747267647971769E-2</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.4550683077070959E-2</v>
       </c>
     </row>
@@ -4366,34 +4578,34 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="21" x14ac:dyDescent="0.25">
@@ -4401,34 +4613,34 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -4436,7 +4648,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1">
         <v>116766000</v>
@@ -4471,7 +4683,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1">
         <v>45235000</v>
@@ -4506,7 +4718,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1">
         <v>162001000</v>
@@ -4541,7 +4753,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1">
         <v>6162000</v>
@@ -4576,34 +4788,34 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -4611,7 +4823,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1">
         <v>3040000</v>
@@ -4646,7 +4858,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10">
         <v>171203000</v>
@@ -4681,7 +4893,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1">
         <v>16038000</v>
@@ -4716,7 +4928,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1">
         <v>1724000</v>
@@ -4751,7 +4963,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1">
         <v>18984000</v>
@@ -4786,7 +4998,7 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1">
         <v>20708000</v>
@@ -4821,22 +5033,22 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1">
         <v>61932000</v>
@@ -4856,7 +5068,7 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1">
         <v>48222000</v>
@@ -4891,7 +5103,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1">
         <v>5867000</v>
@@ -4926,7 +5138,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1">
         <v>90835000</v>
@@ -4961,34 +5173,34 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -4996,7 +5208,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11">
         <v>262038000</v>
@@ -5031,7 +5243,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1">
         <v>4437000</v>
@@ -5066,7 +5278,7 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1">
         <v>312000</v>
@@ -5101,7 +5313,7 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1">
         <v>2539000</v>
@@ -5136,7 +5348,7 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1">
         <v>85262000</v>
@@ -5171,7 +5383,7 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1">
         <v>33979000</v>
@@ -5206,7 +5418,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10">
         <v>126529000</v>
@@ -5241,25 +5453,25 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G61" s="1">
         <v>819637000</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I61" s="1">
         <v>229825000</v>
@@ -5276,7 +5488,7 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1">
         <v>3921000</v>
@@ -5311,7 +5523,7 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1">
         <v>2936000</v>
@@ -5346,7 +5558,7 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1">
         <v>3323000</v>
@@ -5381,7 +5593,7 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1">
         <v>10180000</v>
@@ -5416,34 +5628,34 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -5451,7 +5663,7 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10">
         <v>136709000</v>
@@ -5486,7 +5698,7 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1">
         <v>14401000</v>
@@ -5521,7 +5733,7 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1">
         <v>8127000</v>
@@ -5556,7 +5768,7 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1">
         <v>39076000</v>
@@ -5591,7 +5803,7 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1">
         <v>60982000</v>
@@ -5626,7 +5838,7 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10">
         <v>125329000</v>
@@ -5661,7 +5873,7 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11">
         <v>262038000</v>
@@ -5696,34 +5908,34 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="21" x14ac:dyDescent="0.25">
@@ -5731,34 +5943,34 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -5836,34 +6048,34 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -5903,46 +6115,46 @@
     </row>
     <row r="80" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15">
-        <f t="shared" ref="B80:K80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:K80" si="8">B79/B3</f>
         <v>2.3506517991812109E-2</v>
       </c>
       <c r="C80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.2829030863422728E-2</v>
       </c>
       <c r="D80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.12998832627589424</v>
       </c>
       <c r="E80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.16514315469809082</v>
       </c>
       <c r="F80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.22171320910545605</v>
       </c>
       <c r="G80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.18636420847874594</v>
       </c>
       <c r="H80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.21300408965340001</v>
       </c>
       <c r="I80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.19415205185565612</v>
       </c>
       <c r="J80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.1846374475140872</v>
       </c>
       <c r="K80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.25227141206800713</v>
       </c>
     </row>
@@ -5986,13 +6198,13 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1">
         <v>-1959000</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1">
         <v>-3487000</v>
@@ -6021,39 +6233,39 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R83" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="S83" s="62"/>
+        <v>91</v>
+      </c>
+      <c r="R83" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="S83" s="40"/>
     </row>
     <row r="84" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -6087,12 +6299,12 @@
         <v>64899000</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R84" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="S84" s="64"/>
+        <v>91</v>
+      </c>
+      <c r="R84" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="S84" s="41"/>
     </row>
     <row r="85" spans="1:19" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -6128,10 +6340,10 @@
       <c r="K85" s="1">
         <v>284937000</v>
       </c>
-      <c r="R85" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="S85" s="24">
+      <c r="R85" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="S85" s="43">
         <f>K17</f>
         <v>25824000</v>
       </c>
@@ -6170,10 +6382,10 @@
       <c r="K86" s="1">
         <v>376671000</v>
       </c>
-      <c r="R86" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="S86" s="24">
+      <c r="R86" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="S86" s="43">
         <f>K56</f>
         <v>40638000</v>
       </c>
@@ -6212,10 +6424,10 @@
       <c r="K87" s="10">
         <v>883496000</v>
       </c>
-      <c r="R87" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="S87" s="24">
+      <c r="R87" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="S87" s="43">
         <f>K61</f>
         <v>1273853000</v>
       </c>
@@ -6254,62 +6466,62 @@
       <c r="K88" s="1">
         <v>-70583000</v>
       </c>
-      <c r="R88" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="S88" s="34">
+      <c r="R88" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="S88" s="45">
         <f>S85/(S86+S87)</f>
         <v>1.9645627090638124E-2</v>
       </c>
     </row>
     <row r="89" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15">
+        <f t="shared" ref="B89:K89" si="9">(-1*B88)/B3</f>
+        <v>4.8790670114199526E-2</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.7701816288486303E-2</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="9"/>
+        <v>9.9448862516078762E-2</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="9"/>
+        <v>7.4854832428269499E-2</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.4404132039436328E-2</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.4566050689398706E-2</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.6518481118097523E-2</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.212216410508663E-2</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.5087605761627317E-2</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.5182294509722494E-2</v>
+      </c>
+      <c r="R89" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15">
-        <f t="shared" ref="B89:K89" si="7">(-1*B88)/B3</f>
-        <v>4.8790670114199526E-2</v>
-      </c>
-      <c r="C89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.7701816288486303E-2</v>
-      </c>
-      <c r="D89" s="15">
-        <f t="shared" si="7"/>
-        <v>9.9448862516078762E-2</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="7"/>
-        <v>7.4854832428269499E-2</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.4404132039436328E-2</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.4566050689398706E-2</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.6518481118097523E-2</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.212216410508663E-2</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.5087605761627317E-2</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.5182294509722494E-2</v>
-      </c>
-      <c r="R89" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="S89" s="24">
+      <c r="S89" s="43">
         <f>K27</f>
         <v>49552000</v>
       </c>
@@ -6319,22 +6531,22 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1">
         <v>-10615000</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1">
         <v>-381090000</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1">
         <v>-418595000</v>
@@ -6348,10 +6560,10 @@
       <c r="K90" s="1">
         <v>-12377000</v>
       </c>
-      <c r="R90" s="23" t="s">
+      <c r="R90" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="S90" s="24">
+      <c r="S90" s="43">
         <f>K25</f>
         <v>-564572000</v>
       </c>
@@ -6390,10 +6602,10 @@
       <c r="K91" s="1">
         <v>-132671000</v>
       </c>
-      <c r="R91" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="S91" s="34">
+      <c r="R91" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="S91" s="45">
         <f>S89/S90</f>
         <v>-8.7769141934066874E-2</v>
       </c>
@@ -6432,10 +6644,10 @@
       <c r="K92" s="1">
         <v>263199000</v>
       </c>
-      <c r="R92" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="S92" s="36">
+      <c r="R92" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="S92" s="45">
         <f>S88*(1-S91)</f>
         <v>2.1369906923140093E-2</v>
       </c>
@@ -6474,10 +6686,10 @@
       <c r="K93" s="1">
         <v>-716000</v>
       </c>
-      <c r="R93" s="63" t="s">
-        <v>134</v>
-      </c>
-      <c r="S93" s="64"/>
+      <c r="R93" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="S93" s="41"/>
     </row>
     <row r="94" spans="1:19" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -6513,11 +6725,12 @@
       <c r="K94" s="10">
         <v>46852000</v>
       </c>
-      <c r="R94" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="S94" s="37">
-        <v>4.095E-2</v>
+      <c r="R94" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="S94" s="46">
+        <f>[1]Treasuries!$C$8</f>
+        <v>4.0480000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -6525,25 +6738,25 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1">
         <v>-38127000</v>
@@ -6554,12 +6767,12 @@
       <c r="K95" s="1">
         <v>-1597828000</v>
       </c>
-      <c r="R95" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="S95" s="38" cm="1">
+      <c r="R95" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="S95" s="47" cm="1">
         <f t="array" ref="S95">_FV(A1,"Beta")</f>
-        <v>0.77659999999999996</v>
+        <v>0.74019999999999997</v>
       </c>
     </row>
     <row r="96" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -6567,39 +6780,39 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1">
         <v>431447000</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R96" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="S96" s="37">
+        <v>91</v>
+      </c>
+      <c r="R96" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="S96" s="46">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -6608,41 +6821,41 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R97" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="S97" s="36">
+        <v>91</v>
+      </c>
+      <c r="R97" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="S97" s="45">
         <f>(S94)+((S95)*(S96-S94))</f>
-        <v>7.4382630000000005E-2</v>
+        <v>7.2693504000000006E-2</v>
       </c>
     </row>
     <row r="98" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -6656,33 +6869,33 @@
         <v>-10000000</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R98" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="S98" s="64"/>
+        <v>91</v>
+      </c>
+      <c r="K98" s="1">
+        <v>0</v>
+      </c>
+      <c r="R98" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="S98" s="41"/>
     </row>
     <row r="99" spans="1:19" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -6718,10 +6931,10 @@
       <c r="K99" s="1">
         <v>1136096000</v>
       </c>
-      <c r="R99" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="S99" s="24">
+      <c r="R99" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="S99" s="43">
         <f>S86+S87</f>
         <v>1314491000</v>
       </c>
@@ -6760,12 +6973,12 @@
       <c r="K100" s="10">
         <v>-461732000</v>
       </c>
-      <c r="R100" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="S100" s="34">
+      <c r="R100" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="S100" s="45">
         <f>S99/S103</f>
-        <v>2.9222220531256685E-2</v>
+        <v>2.9299218303985585E-2</v>
       </c>
     </row>
     <row r="101" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -6802,12 +7015,12 @@
       <c r="K101" s="1">
         <v>-9194000</v>
       </c>
-      <c r="R101" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="S101" s="39" cm="1">
+      <c r="R101" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="S101" s="48" cm="1">
         <f t="array" ref="S101">_FV(A1,"Market cap",TRUE)</f>
-        <v>43668093352</v>
+        <v>43549880000</v>
       </c>
     </row>
     <row r="102" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -6844,12 +7057,12 @@
       <c r="K102" s="10">
         <v>466038000</v>
       </c>
-      <c r="R102" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="S102" s="34">
+      <c r="R102" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="S102" s="45">
         <f>S101/S103</f>
-        <v>0.97077777946874333</v>
+        <v>0.97070078169601437</v>
       </c>
     </row>
     <row r="103" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -6886,12 +7099,12 @@
       <c r="K103" s="1">
         <v>919227000</v>
       </c>
-      <c r="R103" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="S103" s="40">
+      <c r="R103" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="S103" s="49">
         <f>S99+S101</f>
-        <v>44982584352</v>
+        <v>44864371000</v>
       </c>
     </row>
     <row r="104" spans="1:19" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -6928,276 +7141,320 @@
       <c r="K104" s="11">
         <v>1385265000</v>
       </c>
-      <c r="R104" s="63" t="s">
-        <v>145</v>
-      </c>
-      <c r="S104" s="64"/>
+      <c r="R104" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="S104" s="41"/>
     </row>
     <row r="105" spans="1:19" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:J105" si="10">(B22*(1-0.2))+B77+B88+B81</f>
+        <v>45257200</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="10"/>
+        <v>54660800</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="10"/>
+        <v>29684600</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="10"/>
+        <v>31444000</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="10"/>
+        <v>63644200</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="10"/>
+        <v>126999600</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="10"/>
+        <v>144366400</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="10"/>
+        <v>215976800</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="10"/>
+        <v>427595200</v>
+      </c>
+      <c r="K105" s="1">
+        <f>(K22*(1-0.2))+K77+K88+K81</f>
+        <v>208561400</v>
+      </c>
+      <c r="L105" s="27">
+        <f>K105*(1+$S$106)</f>
+        <v>251227694.78940067</v>
+      </c>
+      <c r="M105" s="27">
+        <f t="shared" ref="M105:P105" si="11">L105*(1+$S$106)</f>
+        <v>302622415.40954489</v>
+      </c>
+      <c r="N105" s="27">
+        <f t="shared" si="11"/>
+        <v>364531173.1458475</v>
+      </c>
+      <c r="O105" s="27">
+        <f t="shared" si="11"/>
+        <v>439104869.39724773</v>
+      </c>
+      <c r="P105" s="27">
+        <f t="shared" si="11"/>
+        <v>528934424.63212937</v>
+      </c>
+      <c r="Q105" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="R105" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
+      <c r="S105" s="51">
+        <f>(S100*S92)+(S102*S97)</f>
+        <v>7.118976272509929E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f>(C107/B107)-1</f>
         <v>0.38154428012918573</v>
       </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
+      <c r="D106" s="15">
+        <f>(D107/C107)-1</f>
         <v>8.0589348056780974E-3</v>
       </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
+      <c r="E106" s="15">
+        <f>(E107/D107)-1</f>
         <v>0.45440537035624384</v>
       </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
+      <c r="F106" s="15">
+        <f>(F107/E107)-1</f>
         <v>0.92309790305153738</v>
       </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
+      <c r="G106" s="15">
+        <f>(G107/F107)-1</f>
         <v>0.5341275425878349</v>
       </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:K105" si="8">(H106/G106)-1</f>
+      <c r="H106" s="15">
+        <f>(H107/G107)-1</f>
         <v>0.4934914861314077</v>
       </c>
-      <c r="I105" s="15">
-        <f t="shared" si="8"/>
+      <c r="I106" s="15">
+        <f>(I107/H107)-1</f>
         <v>0.28202314065327116</v>
       </c>
-      <c r="J105" s="15">
-        <f t="shared" si="8"/>
+      <c r="J106" s="15">
+        <f>(J107/I107)-1</f>
         <v>0.50048003624877202</v>
       </c>
-      <c r="K105" s="15">
-        <f t="shared" si="8"/>
+      <c r="K106" s="15">
+        <f>(K107/J107)-1</f>
         <v>1.0952834742143924E-3</v>
       </c>
-      <c r="L105" s="15"/>
-      <c r="M105" s="15"/>
-      <c r="N105" s="15"/>
-      <c r="O105" s="15"/>
-      <c r="P105" s="15"/>
-      <c r="Q105" s="15"/>
-      <c r="R105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="S105" s="26">
-        <f>(S100*S92)+(S102*S97)</f>
-        <v>7.283348051528557E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
+      <c r="L106" s="65">
+        <v>666700000</v>
+      </c>
+      <c r="M106" s="65">
+        <v>646000000</v>
+      </c>
+      <c r="N106" s="65">
+        <v>920100000</v>
+      </c>
+      <c r="O106" s="65">
+        <v>1329000000</v>
+      </c>
+      <c r="P106" s="65">
+        <v>1643000000</v>
+      </c>
+      <c r="Q106" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="R106" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="S106" s="53">
+        <f>(SUM(L4:P4)/5)</f>
+        <v>0.20457426345143759</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="B107" s="1">
         <v>47064000</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C107" s="1">
         <v>65021000</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D107" s="1">
         <v>65545000</v>
       </c>
-      <c r="E106" s="1">
+      <c r="E107" s="1">
         <v>95329000</v>
       </c>
-      <c r="F106" s="1">
+      <c r="F107" s="1">
         <v>183327000</v>
       </c>
-      <c r="G106" s="1">
+      <c r="G107" s="1">
         <v>281247000</v>
       </c>
-      <c r="H106" s="1">
+      <c r="H107" s="1">
         <v>420040000</v>
       </c>
-      <c r="I106" s="1">
+      <c r="I107" s="1">
         <v>538501000</v>
       </c>
-      <c r="J106" s="1">
+      <c r="J107" s="1">
         <v>808010000</v>
       </c>
-      <c r="K106" s="1">
+      <c r="K107" s="1">
         <v>808895000</v>
       </c>
-      <c r="L106" s="41">
-        <f>K106*(1+$S$106)</f>
-        <v>1003590419.8547691</v>
-      </c>
-      <c r="M106" s="41">
-        <f t="shared" ref="M106:P106" si="9">L106*(1+$S$106)</f>
-        <v>1245147677.787935</v>
-      </c>
-      <c r="N106" s="41">
-        <f t="shared" si="9"/>
-        <v>1544846093.41433</v>
-      </c>
-      <c r="O106" s="41">
-        <f t="shared" si="9"/>
-        <v>1916679840.4004071</v>
-      </c>
-      <c r="P106" s="41">
-        <f t="shared" si="9"/>
-        <v>2378011393.0171609</v>
-      </c>
-      <c r="Q106" s="42" t="s">
+      <c r="L107" s="28"/>
+      <c r="M107" s="28"/>
+      <c r="N107" s="28"/>
+      <c r="O107" s="28"/>
+      <c r="P107" s="66">
+        <f>P106*(1+S107)/(S108-S107)</f>
+        <v>36459918835.757126</v>
+      </c>
+      <c r="Q107" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="R106" s="43" t="s">
+      <c r="R107" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="S106" s="44">
-        <f>(SUM(L4:P4)/5)</f>
-        <v>0.24069306876018409</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="42"/>
-      <c r="M107" s="42"/>
-      <c r="N107" s="42"/>
-      <c r="O107" s="42"/>
-      <c r="P107" s="45">
-        <f>P106*(1+S107)/(S108-S107)</f>
-        <v>50957230199.121292</v>
-      </c>
-      <c r="Q107" s="46" t="s">
+      <c r="S107" s="55">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="L108" s="66">
+        <f t="shared" ref="L108:O108" si="12">L107+L106</f>
+        <v>666700000</v>
+      </c>
+      <c r="M108" s="66">
+        <f t="shared" si="12"/>
+        <v>646000000</v>
+      </c>
+      <c r="N108" s="66">
+        <f t="shared" si="12"/>
+        <v>920100000</v>
+      </c>
+      <c r="O108" s="66">
+        <f t="shared" si="12"/>
+        <v>1329000000</v>
+      </c>
+      <c r="P108" s="66">
+        <f>P107+P106</f>
+        <v>38102918835.757126</v>
+      </c>
+      <c r="Q108" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="R108" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="R107" s="47" t="s">
+      <c r="S108" s="53">
+        <f>S105</f>
+        <v>7.118976272509929E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="L109" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="S107" s="48">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="L108" s="45">
-        <f t="shared" ref="L108:N108" si="10">L107+L106</f>
-        <v>1003590419.8547691</v>
-      </c>
-      <c r="M108" s="45">
-        <f t="shared" si="10"/>
-        <v>1245147677.787935</v>
-      </c>
-      <c r="N108" s="45">
-        <f t="shared" si="10"/>
-        <v>1544846093.41433</v>
-      </c>
-      <c r="O108" s="45">
-        <f>O107+O106</f>
-        <v>1916679840.4004071</v>
-      </c>
-      <c r="P108" s="45">
-        <f>P107+P106</f>
-        <v>53335241592.138451</v>
-      </c>
-      <c r="Q108" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="R108" s="49" t="s">
+      <c r="M109" s="57"/>
+    </row>
+    <row r="110" spans="1:19" ht="20" x14ac:dyDescent="0.25">
+      <c r="L110" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="S108" s="50">
-        <f>S105</f>
-        <v>7.283348051528557E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="L109" s="59" t="s">
+      <c r="M110" s="48">
+        <f>NPV(S108,L108,M108,N108,O108,P108)</f>
+        <v>29959666502.921616</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" ht="20" x14ac:dyDescent="0.25">
+      <c r="L111" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="M109" s="60"/>
-    </row>
-    <row r="110" spans="1:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="L110" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="M110" s="39">
-        <f>NPV(S108,L108,M108,N108,O108,P108)</f>
-        <v>42242972106.250832</v>
-      </c>
-    </row>
-    <row r="111" spans="1:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="L111" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="M111" s="39">
+      <c r="M111" s="48">
         <f>K40</f>
         <v>1458559000</v>
       </c>
     </row>
     <row r="112" spans="1:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="L112" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="M112" s="39">
+      <c r="L112" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="M112" s="48">
         <f>S99</f>
         <v>1314491000</v>
       </c>
     </row>
     <row r="113" spans="12:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="L113" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="M113" s="39">
+      <c r="L113" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="M113" s="48">
         <f>M110+M111-M112</f>
-        <v>42387040106.250832</v>
+        <v>30103734502.921616</v>
       </c>
     </row>
     <row r="114" spans="12:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="L114" s="51" t="s">
-        <v>155</v>
-      </c>
-      <c r="M114" s="52">
+      <c r="L114" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="M114" s="58">
         <f>K34*(1+(5*Q16))</f>
         <v>286968442.84466374</v>
       </c>
     </row>
     <row r="115" spans="12:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="L115" s="53" t="s">
+      <c r="L115" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="M115" s="60">
+        <f>M113/M114</f>
+        <v>104.90259557639511</v>
+      </c>
+    </row>
+    <row r="116" spans="12:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="L116" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="M116" s="61" cm="1">
+        <f t="array" ref="M116">_FV(A1,"Price")</f>
+        <v>169.45</v>
+      </c>
+    </row>
+    <row r="117" spans="12:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="L117" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="M115" s="58">
-        <f>M113/M114</f>
-        <v>147.70627629322632</v>
-      </c>
-    </row>
-    <row r="116" spans="12:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="L116" s="51" t="s">
+      <c r="M117" s="62">
+        <f>M115/M116-1</f>
+        <v>-0.38092301223726688</v>
+      </c>
+    </row>
+    <row r="118" spans="12:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="L118" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="M116" s="54" cm="1">
-        <f t="array" ref="M116">_FV(A1,"Price")</f>
-        <v>169.91</v>
-      </c>
-    </row>
-    <row r="117" spans="12:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="L117" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="M117" s="56">
-        <f>M115/M116-1</f>
-        <v>-0.13067932262240989</v>
-      </c>
-    </row>
-    <row r="118" spans="12:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="L118" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="M118" s="57" t="str">
+      <c r="M118" s="63" t="str">
         <f>IF(M115&gt;M116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -7233,8 +7490,9 @@
     <hyperlink ref="K36" r:id="rId19" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
     <hyperlink ref="K74" r:id="rId20" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
     <hyperlink ref="L1" r:id="rId21" display="https://finbox.com/NASDAQGS:TEAM/explorer/revenue_proj" xr:uid="{1F57F08A-2130-0C4A-8B00-B11D90D9EB3F}"/>
+    <hyperlink ref="Q106" r:id="rId22" xr:uid="{485760C6-4FCC-4B48-8104-51997E86EA08}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId22"/>
+  <drawing r:id="rId23"/>
 </worksheet>
 </file>
--- a/Technology/Software/Atlassian.xlsx
+++ b/Technology/Software/Atlassian.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D107C9B3-84D2-4A43-B419-3A4986A6D482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBDDA17-5BAE-3548-B6CC-8D92BDDE9FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -586,8 +586,8 @@
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -875,7 +875,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -930,16 +930,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -947,57 +947,45 @@
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1005,6 +993,19 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2144,29 +2145,19 @@
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
       <sheetName val="Compounders"/>
       <sheetName val="GARP"/>
       <sheetName val="Value"/>
       <sheetName val="Aggressive Growth"/>
       <sheetName val="Other"/>
       <sheetName val="Short List"/>
-      <sheetName val="Factor Scoring"/>
-      <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
-      <sheetName val="All Stars"/>
-      <sheetName val="ROIC Port"/>
-      <sheetName val="To Be Modeled"/>
-      <sheetName val="My Holdings"/>
-      <sheetName val="Stable Growth"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="Small Cap Gems"/>
-      <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>4.0480000000000002E-2</v>
+            <v>3.9120000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2185,17 +2176,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2324,8 +2305,8 @@
     <v>300.29000000000002</v>
     <v>113.855</v>
     <v>0.74019999999999997</v>
-    <v>3.61</v>
-    <v>2.1767999999999999E-2</v>
+    <v>4.04</v>
+    <v>2.3841999999999999E-2</v>
     <v>USD</v>
     <v>Atlassian Corporation is a global software company that designs, develops, licenses, and maintains software and provisions software hosting services. Its products include Jira Software, Jira Align, Jira Service Management, Confluence, Trello, Atlassian Access and Bitbucket. Jira Software and Jira Work Management provide a flexible workflow management system that helps plan, organize, track and manage work and projects. Confluence is a social and flexible content collaboration platform used to create, share, organize, and discuss projects. Trello is a collaboration and organization product. Jira Service Management is an intuitive and flexible service desk product for creating and managing services for information technology, legal, and human resources teams. Bitbucket is a code management and collaboration product for teams using distributed version control systems. It also offers additional products, including Atlassian cloud apps and Crowd.</v>
     <v>8813</v>
@@ -2333,23 +2314,23 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>350 Bush Street, Floor 13, SAN FRANCISCO, CA, 94104 US</v>
-    <v>173.43</v>
+    <v>173.88489999999999</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45114.996450728904</v>
+    <v>45117.996983460158</v>
     <v>0</v>
-    <v>165.57</v>
-    <v>43549880000</v>
+    <v>165.631</v>
+    <v>44588179128</v>
     <v>ATLASSIAN CORPORATION</v>
     <v>ATLASSIAN CORPORATION</v>
-    <v>165.57</v>
-    <v>165.84</v>
+    <v>168.13</v>
     <v>169.45</v>
+    <v>173.49</v>
     <v>257007200</v>
     <v>TEAM</v>
     <v>ATLASSIAN CORPORATION (XNAS:TEAM)</v>
-    <v>95</v>
-    <v>1973028</v>
+    <v>10</v>
+    <v>1792480</v>
     <v>2022</v>
   </rv>
   <rv s="2">
@@ -2499,10 +2480,10 @@
       <v>4</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
     </spb>
   </spbData>
@@ -2915,10 +2896,10 @@
   <dimension ref="A1:T118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O14" sqref="O14"/>
+      <selection pane="bottomRight" activeCell="O95" sqref="O95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3095,39 +3076,39 @@
         <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="C4" s="63">
         <f>(C3/B3)-1</f>
         <v>0.44842840982546872</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="63">
         <f>(D3/C3)-1</f>
         <v>0.48539112728895573</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="63">
         <f>(E3/D3)-1</f>
         <v>0.43044745102825788</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="63">
         <f t="shared" ref="F4:P4" si="0">(F3/E3)-1</f>
         <v>0.35636177465442032</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="63">
         <f t="shared" si="0"/>
         <v>0.40974229597893985</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="63">
         <f t="shared" si="0"/>
         <v>0.38466388237313343</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="63">
         <f t="shared" si="0"/>
         <v>0.33388726968326465</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="63">
         <f t="shared" si="0"/>
         <v>0.29424293430753701</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="63">
         <f t="shared" si="0"/>
         <v>0.34164906765106284</v>
       </c>
@@ -3709,15 +3690,15 @@
       </c>
       <c r="R16" s="30">
         <f>S101/K3</f>
-        <v>15.537536007580769</v>
+        <v>15.907975836299922</v>
       </c>
       <c r="S16" s="30">
         <f>S101/K28</f>
-        <v>-70.913821964293859</v>
+        <v>-72.604521445180453</v>
       </c>
       <c r="T16" s="31">
         <f>S101/K107</f>
-        <v>53.838730613985746</v>
+        <v>55.122332475784866</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -3857,15 +3838,15 @@
       </c>
       <c r="R19" s="30">
         <f>S101/L3</f>
-        <v>12.40737321937322</v>
+        <v>12.703184936752137</v>
       </c>
       <c r="S19" s="30">
         <f>S101/L28</f>
-        <v>94.941966426858514</v>
+        <v>97.205535487246564</v>
       </c>
       <c r="T19" s="31">
         <f>S101/L106</f>
-        <v>65.321553922303892</v>
+        <v>66.878924745762717</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4031,7 +4012,7 @@
       </c>
       <c r="T22" s="33">
         <f>K107/S101</f>
-        <v>1.8573989182059745E-2</v>
+        <v>1.8141467443151069E-2</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -6262,10 +6243,10 @@
       <c r="K83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="R83" s="39" t="s">
+      <c r="R83" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="S83" s="40"/>
+      <c r="S83" s="66"/>
     </row>
     <row r="84" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -6301,10 +6282,10 @@
       <c r="K84" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="R84" s="41" t="s">
+      <c r="R84" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="S84" s="41"/>
+      <c r="S84" s="67"/>
     </row>
     <row r="85" spans="1:19" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -6340,10 +6321,10 @@
       <c r="K85" s="1">
         <v>284937000</v>
       </c>
-      <c r="R85" s="42" t="s">
+      <c r="R85" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="S85" s="43">
+      <c r="S85" s="40">
         <f>K17</f>
         <v>25824000</v>
       </c>
@@ -6382,10 +6363,10 @@
       <c r="K86" s="1">
         <v>376671000</v>
       </c>
-      <c r="R86" s="42" t="s">
+      <c r="R86" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="S86" s="43">
+      <c r="S86" s="40">
         <f>K56</f>
         <v>40638000</v>
       </c>
@@ -6424,10 +6405,10 @@
       <c r="K87" s="10">
         <v>883496000</v>
       </c>
-      <c r="R87" s="42" t="s">
+      <c r="R87" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="S87" s="43">
+      <c r="S87" s="40">
         <f>K61</f>
         <v>1273853000</v>
       </c>
@@ -6466,10 +6447,10 @@
       <c r="K88" s="1">
         <v>-70583000</v>
       </c>
-      <c r="R88" s="44" t="s">
+      <c r="R88" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="S88" s="45">
+      <c r="S88" s="42">
         <f>S85/(S86+S87)</f>
         <v>1.9645627090638124E-2</v>
       </c>
@@ -6518,10 +6499,10 @@
         <f t="shared" si="9"/>
         <v>2.5182294509722494E-2</v>
       </c>
-      <c r="R89" s="42" t="s">
+      <c r="R89" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="S89" s="43">
+      <c r="S89" s="40">
         <f>K27</f>
         <v>49552000</v>
       </c>
@@ -6560,10 +6541,10 @@
       <c r="K90" s="1">
         <v>-12377000</v>
       </c>
-      <c r="R90" s="42" t="s">
+      <c r="R90" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="S90" s="43">
+      <c r="S90" s="40">
         <f>K25</f>
         <v>-564572000</v>
       </c>
@@ -6602,10 +6583,10 @@
       <c r="K91" s="1">
         <v>-132671000</v>
       </c>
-      <c r="R91" s="44" t="s">
+      <c r="R91" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="S91" s="45">
+      <c r="S91" s="42">
         <f>S89/S90</f>
         <v>-8.7769141934066874E-2</v>
       </c>
@@ -6644,10 +6625,10 @@
       <c r="K92" s="1">
         <v>263199000</v>
       </c>
-      <c r="R92" s="44" t="s">
+      <c r="R92" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="S92" s="45">
+      <c r="S92" s="42">
         <f>S88*(1-S91)</f>
         <v>2.1369906923140093E-2</v>
       </c>
@@ -6686,10 +6667,10 @@
       <c r="K93" s="1">
         <v>-716000</v>
       </c>
-      <c r="R93" s="41" t="s">
+      <c r="R93" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="S93" s="41"/>
+      <c r="S93" s="67"/>
     </row>
     <row r="94" spans="1:19" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -6725,12 +6706,12 @@
       <c r="K94" s="10">
         <v>46852000</v>
       </c>
-      <c r="R94" s="42" t="s">
+      <c r="R94" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="S94" s="46">
+      <c r="S94" s="43">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0480000000000002E-2</v>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -6767,10 +6748,10 @@
       <c r="K95" s="1">
         <v>-1597828000</v>
       </c>
-      <c r="R95" s="42" t="s">
+      <c r="R95" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="S95" s="47" cm="1">
+      <c r="S95" s="44" cm="1">
         <f t="array" ref="S95">_FV(A1,"Beta")</f>
         <v>0.74019999999999997</v>
       </c>
@@ -6809,10 +6790,10 @@
       <c r="K96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="R96" s="42" t="s">
+      <c r="R96" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="S96" s="46">
+      <c r="S96" s="43">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -6850,12 +6831,12 @@
       <c r="K97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="R97" s="44" t="s">
+      <c r="R97" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="S97" s="45">
+      <c r="S97" s="42">
         <f>(S94)+((S95)*(S96-S94))</f>
-        <v>7.2693504000000006E-2</v>
+        <v>7.2340176000000006E-2</v>
       </c>
     </row>
     <row r="98" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -6892,10 +6873,10 @@
       <c r="K98" s="1">
         <v>0</v>
       </c>
-      <c r="R98" s="41" t="s">
+      <c r="R98" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="S98" s="41"/>
+      <c r="S98" s="67"/>
     </row>
     <row r="99" spans="1:19" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -6931,10 +6912,10 @@
       <c r="K99" s="1">
         <v>1136096000</v>
       </c>
-      <c r="R99" s="42" t="s">
+      <c r="R99" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="S99" s="43">
+      <c r="S99" s="40">
         <f>S86+S87</f>
         <v>1314491000</v>
       </c>
@@ -6973,12 +6954,12 @@
       <c r="K100" s="10">
         <v>-461732000</v>
       </c>
-      <c r="R100" s="44" t="s">
+      <c r="R100" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="S100" s="45">
+      <c r="S100" s="42">
         <f>S99/S103</f>
-        <v>2.9299218303985585E-2</v>
+        <v>2.8636482285987509E-2</v>
       </c>
     </row>
     <row r="101" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -7015,12 +6996,12 @@
       <c r="K101" s="1">
         <v>-9194000</v>
       </c>
-      <c r="R101" s="42" t="s">
+      <c r="R101" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="S101" s="48" cm="1">
+      <c r="S101" s="45" cm="1">
         <f t="array" ref="S101">_FV(A1,"Market cap",TRUE)</f>
-        <v>43549880000</v>
+        <v>44588179128</v>
       </c>
     </row>
     <row r="102" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -7057,12 +7038,12 @@
       <c r="K102" s="10">
         <v>466038000</v>
       </c>
-      <c r="R102" s="44" t="s">
+      <c r="R102" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="S102" s="45">
+      <c r="S102" s="42">
         <f>S101/S103</f>
-        <v>0.97070078169601437</v>
+        <v>0.97136351771401253</v>
       </c>
     </row>
     <row r="103" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -7099,12 +7080,12 @@
       <c r="K103" s="1">
         <v>919227000</v>
       </c>
-      <c r="R103" s="44" t="s">
+      <c r="R103" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="S103" s="49">
+      <c r="S103" s="46">
         <f>S99+S101</f>
-        <v>44864371000</v>
+        <v>45902670128</v>
       </c>
     </row>
     <row r="104" spans="1:19" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7141,10 +7122,10 @@
       <c r="K104" s="11">
         <v>1385265000</v>
       </c>
-      <c r="R104" s="41" t="s">
+      <c r="R104" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="S104" s="41"/>
+      <c r="S104" s="67"/>
     </row>
     <row r="105" spans="1:19" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -7213,12 +7194,12 @@
       <c r="Q105" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="R105" s="50" t="s">
+      <c r="R105" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="S105" s="51">
+      <c r="S105" s="48">
         <f>(S100*S92)+(S102*S97)</f>
-        <v>7.118976272509929E-2</v>
+        <v>7.0880566792468486E-2</v>
       </c>
     </row>
     <row r="106" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -7227,69 +7208,69 @@
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15">
-        <f>(C107/B107)-1</f>
+        <f t="shared" ref="C106:K106" si="12">(C107/B107)-1</f>
         <v>0.38154428012918573</v>
       </c>
       <c r="D106" s="15">
-        <f>(D107/C107)-1</f>
+        <f t="shared" si="12"/>
         <v>8.0589348056780974E-3</v>
       </c>
       <c r="E106" s="15">
-        <f>(E107/D107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.45440537035624384</v>
       </c>
       <c r="F106" s="15">
-        <f>(F107/E107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.92309790305153738</v>
       </c>
       <c r="G106" s="15">
-        <f>(G107/F107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.5341275425878349</v>
       </c>
       <c r="H106" s="15">
-        <f>(H107/G107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.4934914861314077</v>
       </c>
       <c r="I106" s="15">
-        <f>(I107/H107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.28202314065327116</v>
       </c>
       <c r="J106" s="15">
-        <f>(J107/I107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.50048003624877202</v>
       </c>
       <c r="K106" s="15">
-        <f>(K107/J107)-1</f>
+        <f t="shared" si="12"/>
         <v>1.0952834742143924E-3</v>
       </c>
-      <c r="L106" s="65">
+      <c r="L106" s="61">
         <v>666700000</v>
       </c>
-      <c r="M106" s="65">
+      <c r="M106" s="61">
         <v>646000000</v>
       </c>
-      <c r="N106" s="65">
+      <c r="N106" s="61">
         <v>920100000</v>
       </c>
-      <c r="O106" s="65">
+      <c r="O106" s="61">
         <v>1329000000</v>
       </c>
-      <c r="P106" s="65">
+      <c r="P106" s="61">
         <v>1643000000</v>
       </c>
       <c r="Q106" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="R106" s="52" t="s">
+      <c r="R106" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="S106" s="53">
+      <c r="S106" s="50">
         <f>(SUM(L4:P4)/5)</f>
         <v>0.20457426345143759</v>
       </c>
     </row>
     <row r="107" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="64" t="s">
+      <c r="A107" s="60" t="s">
         <v>164</v>
       </c>
       <c r="B107" s="1">
@@ -7326,135 +7307,135 @@
       <c r="M107" s="28"/>
       <c r="N107" s="28"/>
       <c r="O107" s="28"/>
-      <c r="P107" s="66">
+      <c r="P107" s="62">
         <f>P106*(1+S107)/(S108-S107)</f>
-        <v>36459918835.757126</v>
+        <v>36705627626.998909</v>
       </c>
       <c r="Q107" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="R107" s="54" t="s">
+      <c r="R107" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="S107" s="55">
+      <c r="S107" s="52">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="L108" s="66">
-        <f t="shared" ref="L108:O108" si="12">L107+L106</f>
+      <c r="L108" s="62">
+        <f t="shared" ref="L108:O108" si="13">L107+L106</f>
         <v>666700000</v>
       </c>
-      <c r="M108" s="66">
-        <f t="shared" si="12"/>
+      <c r="M108" s="62">
+        <f t="shared" si="13"/>
         <v>646000000</v>
       </c>
-      <c r="N108" s="66">
-        <f t="shared" si="12"/>
+      <c r="N108" s="62">
+        <f t="shared" si="13"/>
         <v>920100000</v>
       </c>
-      <c r="O108" s="66">
-        <f t="shared" si="12"/>
+      <c r="O108" s="62">
+        <f t="shared" si="13"/>
         <v>1329000000</v>
       </c>
-      <c r="P108" s="66">
+      <c r="P108" s="62">
         <f>P107+P106</f>
-        <v>38102918835.757126</v>
+        <v>38348627626.998909</v>
       </c>
       <c r="Q108" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="R108" s="56" t="s">
+      <c r="R108" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="S108" s="53">
+      <c r="S108" s="50">
         <f>S105</f>
-        <v>7.118976272509929E-2</v>
+        <v>7.0880566792468486E-2</v>
       </c>
     </row>
     <row r="109" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="L109" s="57" t="s">
+      <c r="L109" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="M109" s="57"/>
+      <c r="M109" s="64"/>
     </row>
     <row r="110" spans="1:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="L110" s="58" t="s">
+      <c r="L110" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="M110" s="48">
+      <c r="M110" s="45">
         <f>NPV(S108,L108,M108,N108,O108,P108)</f>
-        <v>29959666502.921616</v>
+        <v>30175478829.160114</v>
       </c>
     </row>
     <row r="111" spans="1:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="L111" s="58" t="s">
+      <c r="L111" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="M111" s="48">
+      <c r="M111" s="45">
         <f>K40</f>
         <v>1458559000</v>
       </c>
     </row>
     <row r="112" spans="1:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="L112" s="58" t="s">
+      <c r="L112" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="M112" s="48">
+      <c r="M112" s="45">
         <f>S99</f>
         <v>1314491000</v>
       </c>
     </row>
     <row r="113" spans="12:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="L113" s="58" t="s">
+      <c r="L113" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="M113" s="48">
+      <c r="M113" s="45">
         <f>M110+M111-M112</f>
-        <v>30103734502.921616</v>
+        <v>30319546829.160114</v>
       </c>
     </row>
     <row r="114" spans="12:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="L114" s="58" t="s">
+      <c r="L114" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="M114" s="58">
+      <c r="M114" s="54">
         <f>K34*(1+(5*Q16))</f>
         <v>286968442.84466374</v>
       </c>
     </row>
     <row r="115" spans="12:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="L115" s="59" t="s">
+      <c r="L115" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="M115" s="60">
+      <c r="M115" s="56">
         <f>M113/M114</f>
-        <v>104.90259557639511</v>
+        <v>105.65463759223209</v>
       </c>
     </row>
     <row r="116" spans="12:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="L116" s="58" t="s">
+      <c r="L116" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="M116" s="61" cm="1">
+      <c r="M116" s="57" cm="1">
         <f t="array" ref="M116">_FV(A1,"Price")</f>
-        <v>169.45</v>
+        <v>173.49</v>
       </c>
     </row>
     <row r="117" spans="12:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="L117" s="59" t="s">
+      <c r="L117" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="M117" s="62">
+      <c r="M117" s="58">
         <f>M115/M116-1</f>
-        <v>-0.38092301223726688</v>
+        <v>-0.39100445217458013</v>
       </c>
     </row>
     <row r="118" spans="12:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="L118" s="59" t="s">
+      <c r="L118" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="M118" s="63" t="str">
+      <c r="M118" s="59" t="str">
         <f>IF(M115&gt;M116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
